--- a/PDCA1 (AMDEC)/AMDEC/AMDEC.xlsx
+++ b/PDCA1 (AMDEC)/AMDEC/AMDEC.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetHDD\Ecole\Projet_CESI\2025-2026\Systèmes_automatisés\PDCA1 (AMDEC)\AMDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B6B1ED-614D-41AE-8B77-1BE6F89F8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C3B515-1D80-4BD3-B3FC-AAA26893A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMDEC" sheetId="1" r:id="rId1"/>
     <sheet name="COTATION DE LA CRITICITE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AMDEC!$B$1:$O$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AMDEC!$B$1:$O$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
   <si>
     <t>Criticité</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Mauvaise commande</t>
-  </si>
-  <si>
-    <t>Mauavis code Gcode</t>
   </si>
   <si>
     <t>Bruit blocage moteur</t>
@@ -231,9 +228,6 @@
   </si>
   <si>
     <t>Problème d'installation</t>
-  </si>
-  <si>
-    <t>Comportemnt innatendu de l'encolleuse</t>
   </si>
   <si>
     <t>Verifier l'installation de l'encolleuse</t>
@@ -498,7 +492,55 @@
     <t>Changer le materiel</t>
   </si>
   <si>
-    <t>Cseuil = 0.4(Cmax)</t>
+    <t>Mauvais marge d'erreur</t>
+  </si>
+  <si>
+    <t>Scan du RFID incomplet</t>
+  </si>
+  <si>
+    <t>Augmenter la marge d'erreur</t>
+  </si>
+  <si>
+    <t>Mauvais code Gcode</t>
+  </si>
+  <si>
+    <t>Faire des tests</t>
+  </si>
+  <si>
+    <t>Manque de rechargement</t>
+  </si>
+  <si>
+    <t>Plus de colle dans le reservoir central</t>
+  </si>
+  <si>
+    <t>Arret du système</t>
+  </si>
+  <si>
+    <t>Remplir le reservoir</t>
+  </si>
+  <si>
+    <t>Notifier le rechargement a prevoir en colle</t>
+  </si>
+  <si>
+    <t>Bug du bras</t>
+  </si>
+  <si>
+    <t>Defaillance du système / frottement</t>
+  </si>
+  <si>
+    <t>Capot mal positionnée</t>
+  </si>
+  <si>
+    <t>Verification sur le bras</t>
+  </si>
+  <si>
+    <t>Huiler/graisser les roulements</t>
+  </si>
+  <si>
+    <t>Main du bras</t>
+  </si>
+  <si>
+    <t>Verification sur la main</t>
   </si>
 </sst>
 </file>
@@ -623,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -720,6 +762,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,9 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -847,6 +897,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,55 +917,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2256738</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>209089</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0BD403-70D7-1FDB-D347-792716BDE63B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="3019425"/>
-          <a:ext cx="5495238" cy="3685714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,17 +1187,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="16" customWidth="1"/>
     <col min="4" max="4" width="38.375" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.375" style="16" customWidth="1"/>
     <col min="6" max="8" width="3.625" style="16" customWidth="1"/>
@@ -1210,20 +1214,20 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -1294,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="22">
-        <f t="shared" ref="I3:I27" si="0">F3*G3*H3</f>
+        <f t="shared" ref="I3:I31" si="0">F3*G3*H3</f>
         <v>18</v>
       </c>
       <c r="J3" s="22" t="s">
@@ -1313,23 +1317,23 @@
         <v>3</v>
       </c>
       <c r="O3" s="22">
-        <f t="shared" ref="O3:O27" si="1">L3*M3*N3</f>
+        <f t="shared" ref="O3:O31" si="1">L3*M3*N3</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F4" s="22">
         <v>2</v>
@@ -1338,20 +1342,20 @@
         <v>3</v>
       </c>
       <c r="H4" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="L4" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="22">
         <v>1</v>
@@ -1361,54 +1365,54 @@
       </c>
       <c r="O4" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L5" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="22">
         <v>1</v>
       </c>
       <c r="N5" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1417,92 +1421,92 @@
         <v>17</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L6" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="22">
         <v>1</v>
       </c>
       <c r="N6" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>32</v>
+      <c r="C7" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
       </c>
       <c r="M7" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="22">
         <v>1</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1510,11 +1514,15 @@
       <c r="B8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="22">
         <v>1</v>
       </c>
@@ -1522,16 +1530,18 @@
         <v>5</v>
       </c>
       <c r="H8" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="43"/>
+        <v>33</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="22">
         <v>1</v>
       </c>
@@ -1539,119 +1549,113 @@
         <v>2</v>
       </c>
       <c r="N8" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="24">
-        <v>3</v>
-      </c>
-      <c r="G9" s="24">
-        <v>3</v>
-      </c>
-      <c r="H9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22">
         <v>3</v>
       </c>
       <c r="I9" s="22">
-        <f>F9*G9*H9</f>
-        <v>27</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="24">
-        <v>2</v>
-      </c>
-      <c r="M9" s="24">
-        <v>2</v>
-      </c>
-      <c r="N9" s="24">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>2</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="45"/>
       <c r="D10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="45"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="24">
         <v>3</v>
       </c>
       <c r="G10" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L10" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="24">
         <v>1</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C11" s="44"/>
       <c r="D11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="32">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="24">
+        <v>3</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
@@ -1661,13 +1665,13 @@
       </c>
       <c r="I11" s="22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L11" s="24">
         <v>1</v>
@@ -1683,160 +1687,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="25">
-        <v>2</v>
-      </c>
-      <c r="G12" s="25">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25">
+    <row r="12" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="32">
         <v>5</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="25">
-        <v>2</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
-      </c>
-      <c r="N12" s="25">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1</v>
+      </c>
+      <c r="N12" s="24">
+        <v>1</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="25" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="F13" s="25">
         <v>2</v>
       </c>
       <c r="G13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="L13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F14" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="25">
         <v>2</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="L14" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="25">
         <v>1</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="25">
         <v>3</v>
@@ -1852,10 +1856,10 @@
         <v>18</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L15" s="25">
         <v>2</v>
@@ -1864,98 +1868,100 @@
         <v>2</v>
       </c>
       <c r="N15" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="A16" s="14"/>
+      <c r="B16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="25">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
-        <v>3</v>
-      </c>
-      <c r="H16" s="23">
-        <v>3</v>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="23">
-        <v>1</v>
-      </c>
-      <c r="M16" s="23">
-        <v>1</v>
-      </c>
-      <c r="N16" s="23">
+        <v>5</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="25">
+        <v>5</v>
+      </c>
+      <c r="M16" s="25">
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
         <v>1</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="31">
-        <v>5</v>
-      </c>
-      <c r="G17" s="23">
-        <v>3</v>
-      </c>
-      <c r="H17" s="23">
-        <v>3</v>
+      <c r="A17" s="14"/>
+      <c r="B17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="25">
+        <v>3</v>
+      </c>
+      <c r="G17" s="25">
+        <v>3</v>
+      </c>
+      <c r="H17" s="25">
+        <v>2</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="23">
-        <v>4</v>
-      </c>
-      <c r="M17" s="23">
-        <v>1</v>
-      </c>
-      <c r="N17" s="23">
+        <v>18</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="25">
+        <v>2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>2</v>
+      </c>
+      <c r="N17" s="25">
         <v>2</v>
       </c>
       <c r="O17" s="22">
@@ -1965,84 +1971,84 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="F18" s="31">
+        <v>5</v>
       </c>
       <c r="G18" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="L18" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" s="23">
         <v>1</v>
       </c>
       <c r="N18" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="23">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="F19" s="31">
+        <v>5</v>
       </c>
       <c r="G19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="23">
         <v>1</v>
@@ -2052,119 +2058,117 @@
       </c>
       <c r="O19" s="22">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="26">
-        <v>2</v>
-      </c>
-      <c r="G20" s="26">
-        <v>3</v>
-      </c>
-      <c r="H20" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23">
         <v>1</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="26">
-        <v>1</v>
-      </c>
-      <c r="M20" s="26">
-        <v>1</v>
-      </c>
-      <c r="N20" s="26">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="23">
+        <v>4</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1</v>
+      </c>
+      <c r="N20" s="23">
+        <v>2</v>
       </c>
       <c r="O20" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="26">
-        <v>3</v>
-      </c>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="B21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="23">
         <v>2</v>
       </c>
       <c r="I21" s="22">
-        <f>F21*G21*H21</f>
-        <v>18</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="26">
-        <v>1</v>
-      </c>
-      <c r="M21" s="26">
-        <v>1</v>
-      </c>
-      <c r="N21" s="26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="23">
+        <v>3</v>
+      </c>
+      <c r="M21" s="23">
+        <v>1</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2</v>
       </c>
       <c r="O21" s="22">
-        <f>L21*M21*N21</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>135</v>
-      </c>
       <c r="E22" s="26" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="F22" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="26">
         <v>3</v>
@@ -2173,14 +2177,14 @@
         <v>1</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" ref="I22" si="2">F22*G22*H22</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>138</v>
+        <v>84</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="L22" s="26">
         <v>1</v>
@@ -2192,42 +2196,42 @@
         <v>1</v>
       </c>
       <c r="O22" s="22">
-        <f t="shared" ref="O22" si="3">L22*M22*N22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>127</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="26">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="27">
         <v>3</v>
       </c>
       <c r="H23" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="L23" s="26">
         <v>1</v>
@@ -2239,42 +2243,42 @@
         <v>1</v>
       </c>
       <c r="O23" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <f>L23*M23*N23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F24" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="26">
         <v>1</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L24" s="26">
         <v>1</v>
@@ -2286,28 +2290,28 @@
         <v>1</v>
       </c>
       <c r="O24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O24" si="2">L24*M24*N24</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="31">
-        <v>5</v>
-      </c>
-      <c r="G25" s="27">
+        <v>125</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26">
         <v>3</v>
       </c>
       <c r="H25" s="26">
@@ -2315,15 +2319,15 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="30">
+        <v>3</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="26">
         <v>1</v>
       </c>
       <c r="M25" s="26">
@@ -2340,60 +2344,68 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="26">
         <v>1</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="26">
+        <v>1</v>
+      </c>
+      <c r="N26" s="26">
+        <v>1</v>
+      </c>
       <c r="O26" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="26">
-        <v>1</v>
-      </c>
-      <c r="G27" s="26">
+        <v>91</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="31">
+        <v>5</v>
+      </c>
+      <c r="G27" s="27">
         <v>3</v>
       </c>
       <c r="H27" s="26">
@@ -2401,24 +2413,188 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="30">
+        <v>1</v>
+      </c>
+      <c r="M27" s="26">
+        <v>1</v>
+      </c>
+      <c r="N27" s="26">
+        <v>1</v>
+      </c>
       <c r="O27" s="22">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="26">
+        <v>5</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="26">
+        <v>5</v>
+      </c>
+      <c r="G30" s="26">
+        <v>1</v>
+      </c>
+      <c r="H30" s="26">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="26">
+        <v>3</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:O19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B1:O21" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -2426,17 +2602,16 @@
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <mergeCells count="8">
-    <mergeCell ref="E26:E27"/>
+  <mergeCells count="7">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
-  <conditionalFormatting sqref="F29:H1048576 I28 F1:H2">
+  <conditionalFormatting sqref="F33:H1048576 I32 F1:H2">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -2482,12 +2657,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I27 O3:O27">
+  <conditionalFormatting sqref="O3:O31 I3:I31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="25"/>
+        <cfvo type="num" val="50"/>
         <color theme="9"/>
         <color rgb="FFFFC000"/>
         <color rgb="FFFF0000"/>
@@ -2503,7 +2678,7 @@
           <x14:formula1>
             <xm:f>'COTATION DE LA CRITICITE'!$B$1:$F$1</xm:f>
           </x14:formula1>
-          <xm:sqref>L26:N27 F26:H27 F3:H25 L3:N25</xm:sqref>
+          <xm:sqref>L3:N31 F3:H31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2515,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D89C0F2-9914-4F33-B303-EB3632A5A73B}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2536,7 +2711,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -2556,62 +2731,62 @@
     </row>
     <row r="2" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2649,9 +2824,6 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
@@ -2812,14 +2984,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2967,26 +3141,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03528D39-EFD4-4F3F-A935-C4FD2B594E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F54E7E7-57A1-4285-A4F6-17A4684AA5CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beee2e28-a851-4ac4-9c4a-8792f190b96c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3010,9 +3173,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F54E7E7-57A1-4285-A4F6-17A4684AA5CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03528D39-EFD4-4F3F-A935-C4FD2B594E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="beee2e28-a851-4ac4-9c4a-8792f190b96c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>